--- a/tables/BookdownParams.xlsx
+++ b/tables/BookdownParams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\cdm-science\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B951A6E-9488-4A15-82E7-F2FE28BB3A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44459346-173B-4B0A-8CBF-41E7F6BFDF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" tabRatio="744" activeTab="3" xr2:uid="{D0F3A7CD-BCCC-46D9-BB4D-8BBA552EBE79}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Import" sheetId="1" r:id="rId1"/>
     <sheet name="Timing" sheetId="8" r:id="rId2"/>
     <sheet name="Mixing" sheetId="9" r:id="rId3"/>
-    <sheet name="SedimentLayers" sheetId="10" r:id="rId4"/>
+    <sheet name="Layers" sheetId="10" r:id="rId4"/>
     <sheet name="OM" sheetId="5" r:id="rId5"/>
     <sheet name="NRedox" sheetId="4" r:id="rId6"/>
     <sheet name="SecondaryRedox" sheetId="12" r:id="rId7"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="430">
   <si>
     <t>popu</t>
   </si>
@@ -1331,6 +1331,12 @@
   <si>
     <t>Porewater advection rate</t>
   </si>
+  <si>
+    <t>'1/11/2019'</t>
+  </si>
+  <si>
+    <t>'1/01/2022'</t>
+  </si>
 </sst>
 </file>
 
@@ -1400,9 +1406,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -73338,7 +73344,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73346,6 +73352,7 @@
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.140625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -73367,8 +73374,8 @@
       <c r="B2" t="s">
         <v>415</v>
       </c>
-      <c r="C2" s="5">
-        <v>43770</v>
+      <c r="C2" s="7" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -73378,8 +73385,8 @@
       <c r="B3" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="5">
-        <v>44562</v>
+      <c r="C3" s="7" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -73441,10 +73448,10 @@
       <c r="C8" s="3">
         <v>8</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -73510,7 +73517,7 @@
       <c r="AG1" s="1"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="str">
@@ -73523,7 +73530,7 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="str">
@@ -73536,7 +73543,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="str">
@@ -73549,7 +73556,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B5" t="str">
@@ -73562,7 +73569,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="str">
@@ -73575,7 +73582,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B7" t="str">
@@ -73588,7 +73595,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B8" t="str">
@@ -73601,7 +73608,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B9" t="str">
@@ -73614,7 +73621,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B10" t="str">
@@ -73627,7 +73634,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>418</v>
       </c>
       <c r="B11" t="str">
@@ -73639,7 +73646,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>419</v>
       </c>
       <c r="B12" t="str">
@@ -73663,7 +73670,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74471,7 +74478,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B7" t="str">
@@ -74604,7 +74611,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="str">
@@ -74737,7 +74744,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B9" t="str">
@@ -74870,7 +74877,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="str">

--- a/tables/BookdownParams.xlsx
+++ b/tables/BookdownParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\cdm-science\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44459346-173B-4B0A-8CBF-41E7F6BFDF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771894D-BDAB-4468-BE61-F7BF0D062A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" tabRatio="744" activeTab="3" xr2:uid="{D0F3A7CD-BCCC-46D9-BB4D-8BBA552EBE79}"/>
+    <workbookView xWindow="31320" yWindow="-2970" windowWidth="26400" windowHeight="16440" tabRatio="744" activeTab="10" xr2:uid="{D0F3A7CD-BCCC-46D9-BB4D-8BBA552EBE79}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="433">
   <si>
     <t>popu</t>
   </si>
@@ -1337,6 +1337,15 @@
   <si>
     <t>'1/01/2022'</t>
   </si>
+  <si>
+    <t>(integer)</t>
+  </si>
+  <si>
+    <t>Switch for PO~4~^3-^ adsorption options</t>
+  </si>
+  <si>
+    <t>PO~4~^3-^ adsorption constant for PO4AdsoprtionModel = 1</t>
+  </si>
 </sst>
 </file>
 
@@ -27509,7 +27518,7 @@
         </row>
         <row r="268">
           <cell r="A268" t="str">
-            <v>taubsensitivity</v>
+            <v>!taubsensitivity</v>
           </cell>
           <cell r="B268">
             <v>100</v>
@@ -63875,7 +63884,7 @@
     <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="str">
         <f>'[1]1 to 31'!A268</f>
-        <v>taubsensitivity</v>
+        <v>!taubsensitivity</v>
       </c>
       <c r="B267">
         <f>'[1]1 to 31'!B268</f>
@@ -69235,7 +69244,7 @@
       </c>
       <c r="B243" t="str">
         <f>VLOOKUP($A243,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>Switch for PO~4~^3-^ adsorption options (integer)</v>
       </c>
       <c r="C243">
         <f>VLOOKUP($A243,Import!$A$1:$B$281,2,FALSE)</f>
@@ -69249,7 +69258,7 @@
       </c>
       <c r="B244" t="str">
         <f>VLOOKUP($A244,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>PO~4~^3-^ adsorption constant for PO4AdsoprtionModel = 1 (-)</v>
       </c>
       <c r="C244">
         <f>VLOOKUP($A244,Import!$A$1:$B$281,2,FALSE)</f>
@@ -69567,11 +69576,11 @@
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f>'[1]1 to 31'!A268</f>
-        <v>taubsensitivity</v>
-      </c>
-      <c r="B267" t="str">
+        <v>!taubsensitivity</v>
+      </c>
+      <c r="B267" t="e">
         <f>VLOOKUP($A267,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v>Diffusion sensitivity to external transport (-)</v>
+        <v>#N/A</v>
       </c>
       <c r="C267">
         <f>VLOOKUP($A267,Import!$A$1:$B$281,2,FALSE)</f>
@@ -69729,7 +69738,7 @@
       </c>
       <c r="C278">
         <f>VLOOKUP($A278,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -69783,8 +69792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17420C3-0336-481E-83D4-F3D7AC33D995}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70029,7 +70038,7 @@
         <v>Depth of MPB active production (cm)</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -70038,7 +70047,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -70047,7 +70056,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -70056,7 +70065,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -70065,7 +70074,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -70074,7 +70083,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -70083,7 +70092,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -70095,7 +70104,7 @@
         <v xml:space="preserve">Simulation depth </v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -70107,7 +70116,7 @@
         <v xml:space="preserve">Number of sediment layers </v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -70118,8 +70127,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">Switch for linear or exponential layer spacing </v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -70127,8 +70139,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -70136,8 +70151,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -70149,7 +70167,7 @@
         <v xml:space="preserve">Limitation function switch </v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -70161,7 +70179,7 @@
         <v xml:space="preserve">Complexity of OM model </v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -70170,7 +70188,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -70179,7 +70197,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -71449,7 +71467,7 @@
         <v>89</v>
       </c>
       <c r="C149" t="str">
-        <f>$F$3</f>
+        <f t="shared" ref="C149:C154" si="6">$F$3</f>
         <v>(mmol^-1^ L y^-1^)</v>
       </c>
       <c r="D149" t="str">
@@ -71465,7 +71483,7 @@
         <v>394</v>
       </c>
       <c r="C150" t="str">
-        <f>$F$3</f>
+        <f t="shared" si="6"/>
         <v>(mmol^-1^ L y^-1^)</v>
       </c>
       <c r="D150" t="str">
@@ -71481,7 +71499,7 @@
         <v>393</v>
       </c>
       <c r="C151" t="str">
-        <f>$F$3</f>
+        <f t="shared" si="6"/>
         <v>(mmol^-1^ L y^-1^)</v>
       </c>
       <c r="D151" t="str">
@@ -71497,7 +71515,7 @@
         <v>387</v>
       </c>
       <c r="C152" t="str">
-        <f>$F$3</f>
+        <f t="shared" si="6"/>
         <v>(mmol^-1^ L y^-1^)</v>
       </c>
       <c r="D152" t="str">
@@ -71513,7 +71531,7 @@
         <v>90</v>
       </c>
       <c r="C153" t="str">
-        <f>$F$3</f>
+        <f t="shared" si="6"/>
         <v>(mmol^-1^ L y^-1^)</v>
       </c>
       <c r="D153" t="str">
@@ -71529,7 +71547,7 @@
         <v>91</v>
       </c>
       <c r="C154" t="str">
-        <f>$F$3</f>
+        <f t="shared" si="6"/>
         <v>(mmol^-1^ L y^-1^)</v>
       </c>
       <c r="D154" t="str">
@@ -71911,7 +71929,7 @@
         <v>309</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" ref="D196:D259" si="6">B196&amp;" "&amp;C196</f>
+        <f t="shared" ref="D196:D259" si="7">B196&amp;" "&amp;C196</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -71920,7 +71938,7 @@
         <v>310</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -71929,7 +71947,7 @@
         <v>311</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -71941,11 +71959,11 @@
         <v>92</v>
       </c>
       <c r="C199" t="str">
-        <f>$G$3</f>
+        <f t="shared" ref="C199:C204" si="8">$G$3</f>
         <v>(mmol L^-1^)</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Inhibition concentration of denitritation (mmol L^-1^)</v>
       </c>
     </row>
@@ -71957,11 +71975,11 @@
         <v>95</v>
       </c>
       <c r="C200" t="str">
-        <f>$G$3</f>
+        <f t="shared" si="8"/>
         <v>(mmol L^-1^)</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Inhibition concentration of ammonium oxidation (mmol L^-1^)</v>
       </c>
     </row>
@@ -71973,11 +71991,11 @@
         <v>96</v>
       </c>
       <c r="C201" t="str">
-        <f>$G$3</f>
+        <f t="shared" si="8"/>
         <v>(mmol L^-1^)</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Inhibition concentration of denitrousation (mmol L^-1^)</v>
       </c>
     </row>
@@ -71989,11 +72007,11 @@
         <v>97</v>
       </c>
       <c r="C202" t="str">
-        <f>$G$3</f>
+        <f t="shared" si="8"/>
         <v>(mmol L^-1^)</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Inhibition concentration of deammonification (mmol L^-1^)</v>
       </c>
     </row>
@@ -72005,11 +72023,11 @@
         <v>98</v>
       </c>
       <c r="C203" t="str">
-        <f>$G$3</f>
+        <f t="shared" si="8"/>
         <v>(mmol L^-1^)</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Limitation concentration of denitratation (mmol L^-1^)</v>
       </c>
     </row>
@@ -72021,11 +72039,11 @@
         <v>99</v>
       </c>
       <c r="C204" t="str">
-        <f>$G$3</f>
+        <f t="shared" si="8"/>
         <v>(mmol L^-1^)</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Partitioning concentration of denitritation (mmol L^-1^)</v>
       </c>
     </row>
@@ -72034,7 +72052,7 @@
         <v>318</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72043,7 +72061,7 @@
         <v>319</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72052,7 +72070,7 @@
         <v>320</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72061,7 +72079,7 @@
         <v>321</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72070,7 +72088,7 @@
         <v>322</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72079,7 +72097,7 @@
         <v>323</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72088,7 +72106,7 @@
         <v>324</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72097,7 +72115,7 @@
         <v>325</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72106,7 +72124,7 @@
         <v>326</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72115,7 +72133,7 @@
         <v>327</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72124,7 +72142,7 @@
         <v>328</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72133,7 +72151,7 @@
         <v>329</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72142,7 +72160,7 @@
         <v>330</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72151,7 +72169,7 @@
         <v>331</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72160,7 +72178,7 @@
         <v>332</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72169,7 +72187,7 @@
         <v>333</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72178,7 +72196,7 @@
         <v>334</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72187,7 +72205,7 @@
         <v>335</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72196,7 +72214,7 @@
         <v>336</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72205,7 +72223,7 @@
         <v>337</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72214,7 +72232,7 @@
         <v>338</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72223,7 +72241,7 @@
         <v>339</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72232,7 +72250,7 @@
         <v>340</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72241,7 +72259,7 @@
         <v>341</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72250,7 +72268,7 @@
         <v>342</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72259,7 +72277,7 @@
         <v>343</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72268,7 +72286,7 @@
         <v>344</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72277,7 +72295,7 @@
         <v>345</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72286,7 +72304,7 @@
         <v>346</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72295,7 +72313,7 @@
         <v>347</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72304,7 +72322,7 @@
         <v>348</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72313,7 +72331,7 @@
         <v>349</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72322,7 +72340,7 @@
         <v>350</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72331,7 +72349,7 @@
         <v>351</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72340,7 +72358,7 @@
         <v>352</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72349,7 +72367,7 @@
         <v>353</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72358,35 +72376,47 @@
         <v>354</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" s="6" t="s">
         <v>355</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="6" t="s">
         <v>356</v>
       </c>
+      <c r="B243" t="s">
+        <v>431</v>
+      </c>
+      <c r="C243" t="s">
+        <v>430</v>
+      </c>
       <c r="D243" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="7"/>
+        <v>Switch for PO~4~^3-^ adsorption options (integer)</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>357</v>
       </c>
+      <c r="B244" t="s">
+        <v>432</v>
+      </c>
+      <c r="C244" t="s">
+        <v>46</v>
+      </c>
       <c r="D244" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="7"/>
+        <v>PO~4~^3-^ adsorption constant for PO4AdsoprtionModel = 1 (-)</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -72394,7 +72424,7 @@
         <v>358</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72403,7 +72433,7 @@
         <v>359</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72412,7 +72442,7 @@
         <v>360</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72421,7 +72451,7 @@
         <v>361</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72436,7 +72466,7 @@
         <v>46</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Equilibrium constant for FeS precipitation (-)</v>
       </c>
     </row>
@@ -72445,7 +72475,7 @@
         <v>363</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72454,7 +72484,7 @@
         <v>364</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72463,7 +72493,7 @@
         <v>365</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72472,7 +72502,7 @@
         <v>366</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72481,7 +72511,7 @@
         <v>367</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72497,7 +72527,7 @@
         <v>(mmol^-1^ L y^-1^)</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NH~$~^+^ oxidation by NO~2~^-^ kinetic rate (mmol^-1^ L y^-1^)</v>
       </c>
     </row>
@@ -72513,7 +72543,7 @@
         <v>(mmol^-1^ L y^-1^)</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NO~2~ oxidation kinetic rate (mmol^-1^ L y^-1^)</v>
       </c>
     </row>
@@ -72525,7 +72555,7 @@
         <v>388</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Delete this parameter </v>
       </c>
     </row>
@@ -72541,7 +72571,7 @@
         <v>(mmol L^-1^)</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Limitation concentration of denitrousation (mmol L^-1^)</v>
       </c>
     </row>
@@ -72550,7 +72580,7 @@
         <v>372</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72565,7 +72595,7 @@
         <v>108</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" ref="D260:D290" si="7">B260&amp;" "&amp;C260</f>
+        <f t="shared" ref="D260:D290" si="9">B260&amp;" "&amp;C260</f>
         <v>Lower salinity concenration for F~Sal~ (PSU)</v>
       </c>
     </row>
@@ -72580,7 +72610,7 @@
         <v>108</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Upper salinity concenration for F~Sal~ (PSU)</v>
       </c>
     </row>
@@ -72596,7 +72626,7 @@
         <v>(mmol L^-1^)</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>H~2~S concentration for K~Sul~ (mmol L^-1^)</v>
       </c>
     </row>
@@ -72605,7 +72635,7 @@
         <v>373</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72614,7 +72644,7 @@
         <v>374</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72623,7 +72653,7 @@
         <v>375</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72632,7 +72662,7 @@
         <v>376</v>
       </c>
       <c r="D266" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72647,7 +72677,7 @@
         <v>46</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Diffusion sensitivity to external transport (-)</v>
       </c>
     </row>
@@ -72656,7 +72686,7 @@
         <v>377</v>
       </c>
       <c r="D268" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72665,7 +72695,7 @@
         <v>378</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72674,7 +72704,7 @@
         <v>379</v>
       </c>
       <c r="D270" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72690,7 +72720,7 @@
         <v>(mmol L^-1^)</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Minimum concentration of refractory  POC at which reactions stop (mmol L^-1^)</v>
       </c>
       <c r="E271" t="s">
@@ -72709,7 +72739,7 @@
         <v>(mmol L^-1^)</v>
       </c>
       <c r="D272" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Minimum concentration of refractory PON at which reactions stop (mmol L^-1^)</v>
       </c>
     </row>
@@ -72725,7 +72755,7 @@
         <v>(mmol L^-1^)</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Minimum concentration of refractory POP at which reactions stop (mmol L^-1^)</v>
       </c>
     </row>
@@ -72734,7 +72764,7 @@
         <v>380</v>
       </c>
       <c r="D274" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72743,7 +72773,7 @@
         <v>381</v>
       </c>
       <c r="D275" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72752,7 +72782,7 @@
         <v>382</v>
       </c>
       <c r="D276" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72768,7 +72798,7 @@
         <v>(y^-1^)</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Macroalgae hydrolysis rate - C, N and P (y^-1^)</v>
       </c>
     </row>
@@ -72777,7 +72807,7 @@
         <v>1</v>
       </c>
       <c r="D278" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72786,7 +72816,7 @@
         <v>384</v>
       </c>
       <c r="D279" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72798,7 +72828,7 @@
         <v>119</v>
       </c>
       <c r="D280" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">NH~4~^+^ adsorption model switch </v>
       </c>
     </row>
@@ -72807,7 +72837,7 @@
         <v>386</v>
       </c>
       <c r="D281" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72822,7 +72852,7 @@
         <v>407</v>
       </c>
       <c r="D282" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Duration of simulation (d)</v>
       </c>
     </row>
@@ -72837,7 +72867,7 @@
         <v>417</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Sediment model substep (h)</v>
       </c>
     </row>
@@ -72852,7 +72882,7 @@
         <v>408</v>
       </c>
       <c r="D284" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Hydrodynamic model time step (s)</v>
       </c>
     </row>
@@ -72867,7 +72897,7 @@
         <v>407</v>
       </c>
       <c r="D285" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Duration of spinup before flux (d)</v>
       </c>
     </row>
@@ -72879,13 +72909,13 @@
         <v>412</v>
       </c>
       <c r="D286" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Timestep during spinup period </v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D287" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -72897,7 +72927,7 @@
         <v>422</v>
       </c>
       <c r="D288" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Sediment-water interface boundary switch </v>
       </c>
     </row>
@@ -72909,7 +72939,7 @@
         <v>423</v>
       </c>
       <c r="D289" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Bottom boundary switch </v>
       </c>
     </row>
@@ -72921,7 +72951,7 @@
         <v>424</v>
       </c>
       <c r="D290" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Variables taken from external boundary file for sediment-water interface </v>
       </c>
     </row>
@@ -72941,7 +72971,7 @@
         <v>2</v>
       </c>
       <c r="C303">
-        <f t="shared" ref="C303:C331" si="8">C304+1</f>
+        <f t="shared" ref="C303:C331" si="10">C304+1</f>
         <v>32</v>
       </c>
     </row>
@@ -72953,7 +72983,7 @@
         <v>3</v>
       </c>
       <c r="C304">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
     </row>
@@ -72965,7 +72995,7 @@
         <v>4</v>
       </c>
       <c r="C305">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
     </row>
@@ -72977,7 +73007,7 @@
         <v>5</v>
       </c>
       <c r="C306">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
     </row>
@@ -72989,7 +73019,7 @@
         <v>6</v>
       </c>
       <c r="C307">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
     </row>
@@ -73002,312 +73032,312 @@
         <v>7</v>
       </c>
       <c r="C308">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <f t="shared" ref="A309:A333" si="9">A306-10</f>
+        <f t="shared" ref="A309:A333" si="11">A306-10</f>
         <v>91</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C309">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C310">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C311">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C312">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C313">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C314">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C315">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C316">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C317">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C318">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C319">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C320">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C321">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C322">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C323">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C324">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C325">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C326">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C327">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C328">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C329">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C330">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C331">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="B332" s="1" t="s">
@@ -73320,7 +73350,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="B333" s="1" t="s">
@@ -73552,7 +73582,7 @@
       </c>
       <c r="C4">
         <f>VLOOKUP($A4,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -73666,7 +73696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD47A712-1E7C-45D4-8937-BCDAE51B0E3D}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -75019,7 +75049,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75334,13 +75364,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828F373-91EB-4830-848E-035DEE95A074}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75361,107 +75391,107 @@
         <v>391</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP($A2,lookup!$A$1:$D$281,4,FALSE)</f>
+        <v>Inhibition concentration of denitritation (mmol L^-1^)</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP($A2,Import!$A$1:$B$281,2,FALSE)</f>
+        <v>2.9700000000000001E-4</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP($A3,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v>Inhibition concentration of denitritation (mmol L^-1^)</v>
+        <v>Inhibition concentration of ammonium oxidation (mmol L^-1^)</v>
       </c>
       <c r="C3">
         <f>VLOOKUP($A3,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>2.9700000000000001E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP($A4,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v>Inhibition concentration of ammonium oxidation (mmol L^-1^)</v>
+        <v>Inhibition concentration of denitrousation (mmol L^-1^)</v>
       </c>
       <c r="C4">
         <f>VLOOKUP($A4,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>1E-3</v>
+        <v>2.05E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP($A5,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v>Inhibition concentration of denitrousation (mmol L^-1^)</v>
+        <v>Inhibition concentration of deammonification (mmol L^-1^)</v>
       </c>
       <c r="C5">
         <f>VLOOKUP($A5,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>2.05E-4</v>
+        <v>8.8599999999999996E-4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP($A6,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v>Inhibition concentration of deammonification (mmol L^-1^)</v>
+        <v>Limitation concentration of denitratation (mmol L^-1^)</v>
       </c>
       <c r="C6">
         <f>VLOOKUP($A6,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>8.8599999999999996E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP($A7,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v>Limitation concentration of denitratation (mmol L^-1^)</v>
+        <v>Partitioning concentration of denitritation (mmol L^-1^)</v>
       </c>
       <c r="C7">
         <f>VLOOKUP($A7,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP($A8,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v>Partitioning concentration of denitritation (mmol L^-1^)</v>
+        <v>NH~$~^+^ oxidation by NO~2~^-^ kinetic rate (mmol^-1^ L y^-1^)</v>
       </c>
       <c r="C8">
         <f>VLOOKUP($A8,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0.36499999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP($A9,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v>NH~$~^+^ oxidation by NO~2~^-^ kinetic rate (mmol^-1^ L y^-1^)</v>
+        <v>NO~2~ oxidation kinetic rate (mmol^-1^ L y^-1^)</v>
       </c>
       <c r="C9">
         <f>VLOOKUP($A9,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B10" t="str">
-        <f>VLOOKUP($A10,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v>NO~2~ oxidation kinetic rate (mmol^-1^ L y^-1^)</v>
-      </c>
-      <c r="C10">
-        <f>VLOOKUP($A10,Import!$A$1:$B$281,2,FALSE)</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -75663,10 +75693,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AF95BD-A265-4F5A-B730-44FCDE674B17}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75719,7 +75749,7 @@
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP($A4,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>Switch for PO~4~^3-^ adsorption options (integer)</v>
       </c>
       <c r="C4">
         <f>VLOOKUP($A4,Import!$A$1:$B$281,2,FALSE)</f>
@@ -75732,7 +75762,7 @@
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP($A5,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v>PO~4~^3-^ adsorption constant for PO4AdsoprtionModel = 1 (-)</v>
       </c>
       <c r="C5">
         <f>VLOOKUP($A5,Import!$A$1:$B$281,2,FALSE)</f>
@@ -75741,50 +75771,50 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP($A6,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">NH~4~^+^ adsorption model switch </v>
       </c>
       <c r="C6">
         <f>VLOOKUP($A6,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>263</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP($A7,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v xml:space="preserve">NH~4~^+^ adsorption model switch </v>
+        <v>FeS~2~ precipitation rate (mmol^-1^ L y^-1^)</v>
       </c>
       <c r="C7">
         <f>VLOOKUP($A7,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>1</v>
+        <v>2.3000000000000001E-4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP($A8,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v>FeS~2~ precipitation rate (mmol^-1^ L y^-1^)</v>
+        <v xml:space="preserve">FeS precipitation kinetic rate </v>
       </c>
       <c r="C8">
         <f>VLOOKUP($A8,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>2.3000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP($A9,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v xml:space="preserve">FeS precipitation kinetic rate </v>
+        <v xml:space="preserve">FeS dissolution kinetic rate </v>
       </c>
       <c r="C9">
         <f>VLOOKUP($A9,Import!$A$1:$B$281,2,FALSE)</f>
@@ -75793,27 +75823,14 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>362</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP($A10,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v xml:space="preserve">FeS dissolution kinetic rate </v>
+        <v>Equilibrium constant for FeS precipitation (-)</v>
       </c>
       <c r="C10">
         <f>VLOOKUP($A10,Import!$A$1:$B$281,2,FALSE)</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP($A11,lookup!$A$1:$D$281,4,FALSE)</f>
-        <v>Equilibrium constant for FeS precipitation (-)</v>
-      </c>
-      <c r="C11">
-        <f>VLOOKUP($A11,Import!$A$1:$B$281,2,FALSE)</f>
         <v>-2.2000000000000002</v>
       </c>
     </row>
